--- a/Document/功能.xlsx
+++ b/Document/功能.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="20475" windowHeight="8070" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="20475" windowHeight="8070"/>
   </bookViews>
   <sheets>
     <sheet name="功能图" sheetId="1" r:id="rId1"/>
@@ -206,13 +206,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>9744075</xdr:colOff>
+      <xdr:colOff>9534525</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>838200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>10696575</xdr:colOff>
+      <xdr:colOff>10487025</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1076325</xdr:rowOff>
     </xdr:to>
@@ -223,7 +223,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9744075" y="838200"/>
+          <a:off x="9534525" y="838200"/>
           <a:ext cx="952500" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -271,13 +271,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>11401425</xdr:colOff>
+      <xdr:colOff>10972800</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>838200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>12353925</xdr:colOff>
+      <xdr:colOff>11925300</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1076325</xdr:rowOff>
     </xdr:to>
@@ -288,7 +288,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11401425" y="838200"/>
+          <a:off x="10972800" y="838200"/>
           <a:ext cx="952500" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -336,13 +336,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>13020675</xdr:colOff>
+      <xdr:colOff>12487275</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>838200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>13973175</xdr:colOff>
+      <xdr:colOff>13439775</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1076325</xdr:rowOff>
     </xdr:to>
@@ -353,7 +353,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13020675" y="838200"/>
+          <a:off x="12487275" y="838200"/>
           <a:ext cx="952500" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -401,13 +401,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2247900</xdr:colOff>
+      <xdr:colOff>2809875</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1590675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>3733800</xdr:colOff>
+      <xdr:colOff>4295775</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1828800</xdr:rowOff>
     </xdr:to>
@@ -418,7 +418,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2247900" y="1590675"/>
+          <a:off x="2809875" y="1590675"/>
           <a:ext cx="1485900" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -466,13 +466,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2257425</xdr:colOff>
+      <xdr:colOff>2819400</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>2066925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2524125</xdr:colOff>
+      <xdr:colOff>3086100</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>3276600</xdr:rowOff>
     </xdr:to>
@@ -483,7 +483,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2257425" y="2066925"/>
+          <a:off x="2819400" y="2066925"/>
           <a:ext cx="266700" cy="1209675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -531,13 +531,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2647950</xdr:colOff>
+      <xdr:colOff>3209925</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>2066925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2914650</xdr:colOff>
+      <xdr:colOff>3476625</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>3276600</xdr:rowOff>
     </xdr:to>
@@ -548,7 +548,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2647950" y="2066925"/>
+          <a:off x="3209925" y="2066925"/>
           <a:ext cx="266700" cy="1209675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -596,13 +596,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>3076575</xdr:colOff>
+      <xdr:colOff>3638550</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>2066925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>3343275</xdr:colOff>
+      <xdr:colOff>3905250</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>3276600</xdr:rowOff>
     </xdr:to>
@@ -613,7 +613,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3076575" y="2066925"/>
+          <a:off x="3638550" y="2066925"/>
           <a:ext cx="266700" cy="1209675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -661,13 +661,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>3457575</xdr:colOff>
+      <xdr:colOff>4019550</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>2066925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>3724275</xdr:colOff>
+      <xdr:colOff>4286250</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>3276600</xdr:rowOff>
     </xdr:to>
@@ -678,7 +678,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3457575" y="2066925"/>
+          <a:off x="4019550" y="2066925"/>
           <a:ext cx="266700" cy="1209675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -726,13 +726,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2390776</xdr:colOff>
+      <xdr:colOff>2952751</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1828800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2990851</xdr:colOff>
+      <xdr:colOff>3552826</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>2066925</xdr:rowOff>
     </xdr:to>
@@ -746,7 +746,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="2571751" y="1647825"/>
+          <a:off x="3133726" y="1647825"/>
           <a:ext cx="238125" cy="600075"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -776,13 +776,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2781301</xdr:colOff>
+      <xdr:colOff>3343276</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1828799</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2990851</xdr:colOff>
+      <xdr:colOff>3552826</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>2066924</xdr:rowOff>
     </xdr:to>
@@ -796,7 +796,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="2767013" y="1843087"/>
+          <a:off x="3328988" y="1843087"/>
           <a:ext cx="238125" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -826,13 +826,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2990850</xdr:colOff>
+      <xdr:colOff>3552825</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1828799</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>3209925</xdr:colOff>
+      <xdr:colOff>3771900</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>2066924</xdr:rowOff>
     </xdr:to>
@@ -846,7 +846,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="2981325" y="1838324"/>
+          <a:off x="3543300" y="1838324"/>
           <a:ext cx="238125" cy="219075"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -876,13 +876,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2990850</xdr:colOff>
+      <xdr:colOff>3552825</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1828799</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>3590925</xdr:colOff>
+      <xdr:colOff>4152900</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>2066924</xdr:rowOff>
     </xdr:to>
@@ -896,7 +896,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="3171825" y="1647824"/>
+          <a:off x="3733800" y="1647824"/>
           <a:ext cx="238125" cy="600075"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -926,13 +926,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>4057650</xdr:colOff>
+      <xdr:colOff>4457700</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1590675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>5543550</xdr:colOff>
+      <xdr:colOff>5943600</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1828800</xdr:rowOff>
     </xdr:to>
@@ -943,7 +943,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4057650" y="1590675"/>
+          <a:off x="4457700" y="1590675"/>
           <a:ext cx="1485900" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -991,13 +991,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>4067175</xdr:colOff>
+      <xdr:colOff>4467225</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>2066925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>4333875</xdr:colOff>
+      <xdr:colOff>4733925</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>3276600</xdr:rowOff>
     </xdr:to>
@@ -1008,7 +1008,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4067175" y="2066925"/>
+          <a:off x="4467225" y="2066925"/>
           <a:ext cx="266700" cy="1209675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1072,13 +1072,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>4457700</xdr:colOff>
+      <xdr:colOff>4857750</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>2066925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>4724400</xdr:colOff>
+      <xdr:colOff>5124450</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>3276600</xdr:rowOff>
     </xdr:to>
@@ -1089,7 +1089,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4457700" y="2066925"/>
+          <a:off x="4857750" y="2066925"/>
           <a:ext cx="266700" cy="1209675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1153,13 +1153,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>4886325</xdr:colOff>
+      <xdr:colOff>5286375</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>2066925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>5153025</xdr:colOff>
+      <xdr:colOff>5553075</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>3276600</xdr:rowOff>
     </xdr:to>
@@ -1170,7 +1170,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4886325" y="2066925"/>
+          <a:off x="5286375" y="2066925"/>
           <a:ext cx="266700" cy="1209675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1234,13 +1234,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>5267325</xdr:colOff>
+      <xdr:colOff>5667375</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>2066925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>5534025</xdr:colOff>
+      <xdr:colOff>5934075</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>3276600</xdr:rowOff>
     </xdr:to>
@@ -1251,7 +1251,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5267325" y="2066925"/>
+          <a:off x="5667375" y="2066925"/>
           <a:ext cx="266700" cy="1209675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1315,13 +1315,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>4200526</xdr:colOff>
+      <xdr:colOff>4600576</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1828800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>4800601</xdr:colOff>
+      <xdr:colOff>5200651</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>2066925</xdr:rowOff>
     </xdr:to>
@@ -1335,7 +1335,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="4381501" y="1647825"/>
+          <a:off x="4781551" y="1647825"/>
           <a:ext cx="238125" cy="600075"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -1365,13 +1365,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>4591051</xdr:colOff>
+      <xdr:colOff>4991101</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1828799</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>4800601</xdr:colOff>
+      <xdr:colOff>5200651</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>2066924</xdr:rowOff>
     </xdr:to>
@@ -1385,7 +1385,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="4576763" y="1843087"/>
+          <a:off x="4976813" y="1843087"/>
           <a:ext cx="238125" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -1415,13 +1415,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>4800600</xdr:colOff>
+      <xdr:colOff>5200650</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1828799</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>5019675</xdr:colOff>
+      <xdr:colOff>5419725</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>2066924</xdr:rowOff>
     </xdr:to>
@@ -1435,7 +1435,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="4791075" y="1838324"/>
+          <a:off x="5191125" y="1838324"/>
           <a:ext cx="238125" cy="219075"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -1465,13 +1465,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>4800600</xdr:colOff>
+      <xdr:colOff>5200650</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1828799</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>5400675</xdr:colOff>
+      <xdr:colOff>5800725</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>2066924</xdr:rowOff>
     </xdr:to>
@@ -1485,7 +1485,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="4981575" y="1647824"/>
+          <a:off x="5381625" y="1647824"/>
           <a:ext cx="238125" cy="600075"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -1515,13 +1515,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>5924550</xdr:colOff>
+      <xdr:colOff>6124575</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1590675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>7410450</xdr:colOff>
+      <xdr:colOff>7610475</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1828800</xdr:rowOff>
     </xdr:to>
@@ -1532,7 +1532,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5924550" y="1590675"/>
+          <a:off x="6124575" y="1590675"/>
           <a:ext cx="1485900" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1580,13 +1580,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>5934075</xdr:colOff>
+      <xdr:colOff>6134100</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>2066925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>6200775</xdr:colOff>
+      <xdr:colOff>6400800</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>3276600</xdr:rowOff>
     </xdr:to>
@@ -1597,7 +1597,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5934075" y="2066925"/>
+          <a:off x="6134100" y="2066925"/>
           <a:ext cx="266700" cy="1209675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1661,13 +1661,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>6324600</xdr:colOff>
+      <xdr:colOff>6524625</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>2066925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>6591300</xdr:colOff>
+      <xdr:colOff>6791325</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>3276600</xdr:rowOff>
     </xdr:to>
@@ -1678,7 +1678,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6324600" y="2066925"/>
+          <a:off x="6524625" y="2066925"/>
           <a:ext cx="266700" cy="1209675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1742,13 +1742,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>6753225</xdr:colOff>
+      <xdr:colOff>6953250</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>2066925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>7019925</xdr:colOff>
+      <xdr:colOff>7219950</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>3276600</xdr:rowOff>
     </xdr:to>
@@ -1759,7 +1759,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6753225" y="2066925"/>
+          <a:off x="6953250" y="2066925"/>
           <a:ext cx="266700" cy="1209675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1823,13 +1823,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>7134225</xdr:colOff>
+      <xdr:colOff>7334250</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>2066925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>7400925</xdr:colOff>
+      <xdr:colOff>7600950</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>3276600</xdr:rowOff>
     </xdr:to>
@@ -1840,7 +1840,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7134225" y="2066925"/>
+          <a:off x="7334250" y="2066925"/>
           <a:ext cx="266700" cy="1209675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1904,13 +1904,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>6067426</xdr:colOff>
+      <xdr:colOff>6267451</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1828800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>6667501</xdr:colOff>
+      <xdr:colOff>6867526</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>2066925</xdr:rowOff>
     </xdr:to>
@@ -1924,7 +1924,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="6248401" y="1647825"/>
+          <a:off x="6448426" y="1647825"/>
           <a:ext cx="238125" cy="600075"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -1954,13 +1954,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>6457951</xdr:colOff>
+      <xdr:colOff>6657976</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1828799</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>6667501</xdr:colOff>
+      <xdr:colOff>6867526</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>2066924</xdr:rowOff>
     </xdr:to>
@@ -1974,7 +1974,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="6443663" y="1843087"/>
+          <a:off x="6643688" y="1843087"/>
           <a:ext cx="238125" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -2004,13 +2004,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>6667500</xdr:colOff>
+      <xdr:colOff>6867525</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1828799</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>6886575</xdr:colOff>
+      <xdr:colOff>7086600</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>2066924</xdr:rowOff>
     </xdr:to>
@@ -2024,7 +2024,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="6657975" y="1838324"/>
+          <a:off x="6858000" y="1838324"/>
           <a:ext cx="238125" cy="219075"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -2054,13 +2054,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>6667500</xdr:colOff>
+      <xdr:colOff>6867525</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1828799</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>7267575</xdr:colOff>
+      <xdr:colOff>7467600</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>2066924</xdr:rowOff>
     </xdr:to>
@@ -2074,7 +2074,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="6848475" y="1647824"/>
+          <a:off x="7048500" y="1647824"/>
           <a:ext cx="238125" cy="600075"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -2104,13 +2104,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>7743825</xdr:colOff>
+      <xdr:colOff>7715250</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1590675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>9229725</xdr:colOff>
+      <xdr:colOff>9201150</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1828800</xdr:rowOff>
     </xdr:to>
@@ -2121,7 +2121,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7743825" y="1590675"/>
+          <a:off x="7715250" y="1590675"/>
           <a:ext cx="1485900" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2169,13 +2169,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>7753350</xdr:colOff>
+      <xdr:colOff>7877175</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>2066925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>8020050</xdr:colOff>
+      <xdr:colOff>8143875</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>3276600</xdr:rowOff>
     </xdr:to>
@@ -2186,7 +2186,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7753350" y="2066925"/>
+          <a:off x="7877175" y="2066925"/>
           <a:ext cx="266700" cy="1209675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2250,13 +2250,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>8143875</xdr:colOff>
+      <xdr:colOff>8248650</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>2066925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>8410575</xdr:colOff>
+      <xdr:colOff>8515350</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>3276600</xdr:rowOff>
     </xdr:to>
@@ -2267,7 +2267,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8143875" y="2066925"/>
+          <a:off x="8248650" y="2066925"/>
           <a:ext cx="266700" cy="1209675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2331,13 +2331,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>8572500</xdr:colOff>
+      <xdr:colOff>8591550</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>2066925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>8839200</xdr:colOff>
+      <xdr:colOff>8858250</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>3276600</xdr:rowOff>
     </xdr:to>
@@ -2348,7 +2348,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8572500" y="2066925"/>
+          <a:off x="8591550" y="2066925"/>
           <a:ext cx="266700" cy="1209675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2412,13 +2412,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>8953500</xdr:colOff>
+      <xdr:colOff>8924925</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>2066925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>9220200</xdr:colOff>
+      <xdr:colOff>9191625</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>3276600</xdr:rowOff>
     </xdr:to>
@@ -2429,7 +2429,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8953500" y="2066925"/>
+          <a:off x="8924925" y="2066925"/>
           <a:ext cx="266700" cy="1209675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2493,13 +2493,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>7886701</xdr:colOff>
+      <xdr:colOff>8010526</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1828800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>8486776</xdr:colOff>
+      <xdr:colOff>8458201</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>2066925</xdr:rowOff>
     </xdr:to>
@@ -2513,8 +2513,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="8067676" y="1647825"/>
-          <a:ext cx="238125" cy="600075"/>
+          <a:off x="8115301" y="1724025"/>
+          <a:ext cx="238125" cy="447675"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -2543,13 +2543,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>8277226</xdr:colOff>
+      <xdr:colOff>8382001</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1828799</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>8486776</xdr:colOff>
+      <xdr:colOff>8458201</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>2066924</xdr:rowOff>
     </xdr:to>
@@ -2563,8 +2563,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="8262938" y="1843087"/>
-          <a:ext cx="238125" cy="209550"/>
+          <a:off x="8301038" y="1909762"/>
+          <a:ext cx="238125" cy="76200"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -2593,13 +2593,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>8486775</xdr:colOff>
+      <xdr:colOff>8458201</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1828799</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>8705850</xdr:colOff>
+      <xdr:colOff>8724901</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>2066924</xdr:rowOff>
     </xdr:to>
@@ -2613,8 +2613,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="8477250" y="1838324"/>
-          <a:ext cx="238125" cy="219075"/>
+          <a:off x="8472488" y="1814512"/>
+          <a:ext cx="238125" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -2643,13 +2643,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>8486775</xdr:colOff>
+      <xdr:colOff>8458200</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1828799</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>9086850</xdr:colOff>
+      <xdr:colOff>9058275</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>2066924</xdr:rowOff>
     </xdr:to>
@@ -2663,7 +2663,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="8667750" y="1647824"/>
+          <a:off x="8639175" y="1647824"/>
           <a:ext cx="238125" cy="600075"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -2749,7 +2749,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>10220325</xdr:colOff>
+      <xdr:colOff>10010775</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>838200</xdr:rowOff>
     </xdr:to>
@@ -2763,8 +2763,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="8817769" y="-564356"/>
-          <a:ext cx="381000" cy="2424112"/>
+          <a:off x="8712994" y="-459581"/>
+          <a:ext cx="381000" cy="2214562"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -2793,15 +2793,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2990850</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>1076325</xdr:rowOff>
+      <xdr:colOff>3552825</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1076326</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5772150</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1590675</xdr:rowOff>
+      <xdr:rowOff>1590676</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2813,8 +2813,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="4124325" y="-57150"/>
-          <a:ext cx="514350" cy="2781300"/>
+          <a:off x="4405313" y="223838"/>
+          <a:ext cx="514350" cy="2219325"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -2843,7 +2843,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>4800600</xdr:colOff>
+      <xdr:colOff>5200650</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1076325</xdr:rowOff>
     </xdr:from>
@@ -2863,8 +2863,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="5029200" y="847725"/>
-          <a:ext cx="514350" cy="971550"/>
+          <a:off x="5229225" y="1047750"/>
+          <a:ext cx="514350" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -2893,13 +2893,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>5772150</xdr:colOff>
+      <xdr:colOff>5772149</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1076325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>6667500</xdr:colOff>
+      <xdr:colOff>6867524</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1590675</xdr:rowOff>
     </xdr:to>
@@ -2913,8 +2913,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="5962650" y="885825"/>
-          <a:ext cx="514350" cy="895350"/>
+          <a:off x="6062662" y="785812"/>
+          <a:ext cx="514350" cy="1095375"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -2943,13 +2943,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>5772149</xdr:colOff>
+      <xdr:colOff>5772150</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1076325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>8486774</xdr:colOff>
+      <xdr:colOff>8458200</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1590675</xdr:rowOff>
     </xdr:to>
@@ -2963,8 +2963,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="6872287" y="-23813"/>
-          <a:ext cx="514350" cy="2714625"/>
+          <a:off x="6858000" y="-9525"/>
+          <a:ext cx="514350" cy="2686050"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -2993,13 +2993,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>9458325</xdr:colOff>
+      <xdr:colOff>9344025</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>2066925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>9725025</xdr:colOff>
+      <xdr:colOff>9610725</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>3276600</xdr:rowOff>
     </xdr:to>
@@ -3010,7 +3010,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9458325" y="2066925"/>
+          <a:off x="9344025" y="2066925"/>
           <a:ext cx="266700" cy="1209675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3074,13 +3074,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>9848850</xdr:colOff>
+      <xdr:colOff>9696450</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>2066925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>10115550</xdr:colOff>
+      <xdr:colOff>9963150</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>3276600</xdr:rowOff>
     </xdr:to>
@@ -3091,7 +3091,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9848850" y="2066925"/>
+          <a:off x="9696450" y="2066925"/>
           <a:ext cx="266700" cy="1209675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3155,13 +3155,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>10277475</xdr:colOff>
+      <xdr:colOff>10048875</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>2066925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>10544175</xdr:colOff>
+      <xdr:colOff>10315575</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>3276600</xdr:rowOff>
     </xdr:to>
@@ -3172,7 +3172,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10277475" y="2066925"/>
+          <a:off x="10048875" y="2066925"/>
           <a:ext cx="266700" cy="1209675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3236,13 +3236,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
+      <xdr:colOff>10391775</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>2066925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>10658475</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>2066925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>10925175</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>3276600</xdr:rowOff>
     </xdr:to>
@@ -3253,7 +3253,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10658475" y="2066925"/>
+          <a:off x="10391775" y="2066925"/>
           <a:ext cx="266700" cy="1209675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3325,13 +3325,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>9591675</xdr:colOff>
+      <xdr:colOff>9477375</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1076325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>10220325</xdr:colOff>
+      <xdr:colOff>10010775</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>2066925</xdr:rowOff>
     </xdr:to>
@@ -3345,8 +3345,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="9410700" y="1257300"/>
-          <a:ext cx="990600" cy="628650"/>
+          <a:off x="9248775" y="1304925"/>
+          <a:ext cx="990600" cy="533400"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -3375,13 +3375,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>9982200</xdr:colOff>
+      <xdr:colOff>9829800</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1076326</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>10220325</xdr:colOff>
+      <xdr:colOff>10010775</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>2066926</xdr:rowOff>
     </xdr:to>
@@ -3395,8 +3395,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="9605963" y="1452563"/>
-          <a:ext cx="990600" cy="238125"/>
+          <a:off x="9424988" y="1481138"/>
+          <a:ext cx="990600" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -3425,13 +3425,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>10220325</xdr:colOff>
+      <xdr:colOff>10010775</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1076325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>10410825</xdr:colOff>
+      <xdr:colOff>10182225</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>2066925</xdr:rowOff>
     </xdr:to>
@@ -3445,8 +3445,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="9820275" y="1476375"/>
-          <a:ext cx="990600" cy="190500"/>
+          <a:off x="9601200" y="1485900"/>
+          <a:ext cx="990600" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -3475,13 +3475,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>10220325</xdr:colOff>
+      <xdr:colOff>10010775</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1076325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>10791825</xdr:colOff>
+      <xdr:colOff>10525125</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>2066925</xdr:rowOff>
     </xdr:to>
@@ -3495,8 +3495,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="10010775" y="1285875"/>
-          <a:ext cx="990600" cy="571500"/>
+          <a:off x="9772650" y="1314450"/>
+          <a:ext cx="990600" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -3525,13 +3525,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>7796213</xdr:colOff>
+      <xdr:colOff>7796212</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>457200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>11877675</xdr:colOff>
+      <xdr:colOff>11449049</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>838200</xdr:rowOff>
     </xdr:to>
@@ -3545,8 +3545,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="9646444" y="-1393031"/>
-          <a:ext cx="381000" cy="4081462"/>
+          <a:off x="9432131" y="-1178719"/>
+          <a:ext cx="381000" cy="3652837"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -3581,7 +3581,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>13496925</xdr:colOff>
+      <xdr:colOff>12963525</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>838200</xdr:rowOff>
     </xdr:to>
@@ -3595,8 +3595,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="10456069" y="-2202656"/>
-          <a:ext cx="381000" cy="5700712"/>
+          <a:off x="10189369" y="-1935956"/>
+          <a:ext cx="381000" cy="5167312"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -3625,13 +3625,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>11172825</xdr:colOff>
+      <xdr:colOff>10810875</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>2066925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>11439525</xdr:colOff>
+      <xdr:colOff>11077575</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>3276600</xdr:rowOff>
     </xdr:to>
@@ -3642,7 +3642,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11172825" y="2066925"/>
+          <a:off x="10810875" y="2066925"/>
           <a:ext cx="266700" cy="1209675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3706,13 +3706,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>11563350</xdr:colOff>
+      <xdr:colOff>11144250</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>2066925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>11830050</xdr:colOff>
+      <xdr:colOff>11410950</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>3276600</xdr:rowOff>
     </xdr:to>
@@ -3723,7 +3723,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11563350" y="2066925"/>
+          <a:off x="11144250" y="2066925"/>
           <a:ext cx="266700" cy="1209675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3795,13 +3795,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>11991975</xdr:colOff>
+      <xdr:colOff>11506200</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>2066925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>12258675</xdr:colOff>
+      <xdr:colOff>11772900</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>3276600</xdr:rowOff>
     </xdr:to>
@@ -3812,7 +3812,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11991975" y="2066925"/>
+          <a:off x="11506200" y="2066925"/>
           <a:ext cx="266700" cy="1209675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3876,13 +3876,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>12372975</xdr:colOff>
+      <xdr:colOff>11858625</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>2066925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>12639675</xdr:colOff>
+      <xdr:colOff>12125325</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>3276600</xdr:rowOff>
     </xdr:to>
@@ -3893,7 +3893,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12372975" y="2066925"/>
+          <a:off x="11858625" y="2066925"/>
           <a:ext cx="266700" cy="1209675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3957,15 +3957,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>11306175</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>1076325</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>11877675</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>2066925</xdr:rowOff>
+      <xdr:colOff>10944225</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1076326</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>11449050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>2066926</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3977,8 +3977,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="11096625" y="1285875"/>
-          <a:ext cx="990600" cy="571500"/>
+          <a:off x="10701338" y="1319213"/>
+          <a:ext cx="990600" cy="504825"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -4007,15 +4007,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>11696700</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>1076326</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>11877675</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>2066926</xdr:rowOff>
+      <xdr:colOff>11277600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1076325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>11449050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>2066925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4027,8 +4027,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="11291888" y="1481138"/>
-          <a:ext cx="990600" cy="180975"/>
+          <a:off x="10868025" y="1485900"/>
+          <a:ext cx="990600" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -4057,13 +4057,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>11877675</xdr:colOff>
+      <xdr:colOff>11449050</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1076325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>12125325</xdr:colOff>
+      <xdr:colOff>11639550</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>2066925</xdr:rowOff>
     </xdr:to>
@@ -4077,8 +4077,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="11506200" y="1447800"/>
-          <a:ext cx="990600" cy="247650"/>
+          <a:off x="11049000" y="1476375"/>
+          <a:ext cx="990600" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -4107,13 +4107,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>11877675</xdr:colOff>
+      <xdr:colOff>11449049</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1076325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>12506325</xdr:colOff>
+      <xdr:colOff>11991974</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>2066925</xdr:rowOff>
     </xdr:to>
@@ -4127,8 +4127,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="11696700" y="1257300"/>
-          <a:ext cx="990600" cy="628650"/>
+          <a:off x="11225212" y="1300162"/>
+          <a:ext cx="990600" cy="542925"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -4157,13 +4157,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>12801600</xdr:colOff>
+      <xdr:colOff>12306300</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>2066925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>13068300</xdr:colOff>
+      <xdr:colOff>12573000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>3276600</xdr:rowOff>
     </xdr:to>
@@ -4174,7 +4174,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12801600" y="2066925"/>
+          <a:off x="12306300" y="2066925"/>
           <a:ext cx="266700" cy="1209675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4238,13 +4238,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>13192125</xdr:colOff>
+      <xdr:colOff>12649200</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>2066925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>13458825</xdr:colOff>
+      <xdr:colOff>12915900</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>3276600</xdr:rowOff>
     </xdr:to>
@@ -4255,7 +4255,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13192125" y="2066925"/>
+          <a:off x="12649200" y="2066925"/>
           <a:ext cx="266700" cy="1209675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4319,13 +4319,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>13620750</xdr:colOff>
+      <xdr:colOff>12992100</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>2066925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>13887450</xdr:colOff>
+      <xdr:colOff>13258800</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>3276600</xdr:rowOff>
     </xdr:to>
@@ -4336,7 +4336,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13620750" y="2066925"/>
+          <a:off x="12992100" y="2066925"/>
           <a:ext cx="266700" cy="1209675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4393,13 +4393,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>14001750</xdr:colOff>
+      <xdr:colOff>13344525</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>2066925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>14268450</xdr:colOff>
+      <xdr:colOff>13611225</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>3276600</xdr:rowOff>
     </xdr:to>
@@ -4410,7 +4410,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14001750" y="2066925"/>
+          <a:off x="13344525" y="2066925"/>
           <a:ext cx="266700" cy="1209675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4474,13 +4474,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>12934950</xdr:colOff>
+      <xdr:colOff>12439650</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1076326</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>13496925</xdr:colOff>
+      <xdr:colOff>12963525</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>2066926</xdr:rowOff>
     </xdr:to>
@@ -4494,8 +4494,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="12720638" y="1290638"/>
-          <a:ext cx="990600" cy="561975"/>
+          <a:off x="12206288" y="1309688"/>
+          <a:ext cx="990600" cy="523875"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -4524,15 +4524,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>13325475</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>1076325</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>13496925</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>2066925</xdr:rowOff>
+      <xdr:colOff>12782550</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1076326</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12963525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>2066926</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4544,8 +4544,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="12915900" y="1485900"/>
-          <a:ext cx="990600" cy="171450"/>
+          <a:off x="12377738" y="1481138"/>
+          <a:ext cx="990600" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -4574,13 +4574,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>13496924</xdr:colOff>
+      <xdr:colOff>12963524</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1076325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>13754099</xdr:colOff>
+      <xdr:colOff>13125449</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>2066925</xdr:rowOff>
     </xdr:to>
@@ -4594,8 +4594,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="13130212" y="1443037"/>
-          <a:ext cx="990600" cy="257175"/>
+          <a:off x="12549187" y="1490662"/>
+          <a:ext cx="990600" cy="161925"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -4624,13 +4624,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>13496924</xdr:colOff>
+      <xdr:colOff>12963525</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1076325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>14135099</xdr:colOff>
+      <xdr:colOff>13477875</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>2066925</xdr:rowOff>
     </xdr:to>
@@ -4644,8 +4644,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="13320712" y="1252537"/>
-          <a:ext cx="990600" cy="638175"/>
+          <a:off x="12725400" y="1314450"/>
+          <a:ext cx="990600" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -12552,9 +12552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -12575,7 +12573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
